--- a/FURs and Non-FURs.xlsx
+++ b/FURs and Non-FURs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\projects\TwinEU\WP3\T3.2\!GitHub-Documents\T3.2_Functional_specifications_of_pan-European_DT_design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7EDC500-F6AD-4CE5-9F36-A98C12980B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6003DF23-BBC9-4C64-8A8E-0F1295AB6F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="715" activeTab="4" xr2:uid="{1EC336E7-9B8F-4023-BA48-614D005FA557}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="11440" tabRatio="715" activeTab="3" xr2:uid="{1EC336E7-9B8F-4023-BA48-614D005FA557}"/>
   </bookViews>
   <sheets>
     <sheet name="Ge FURs" sheetId="3" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4048" uniqueCount="2465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4039" uniqueCount="2458">
   <si>
     <r>
       <rPr>
@@ -13564,15 +13564,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>new:</t>
-  </si>
-  <si>
-    <t>Ib - 7 to be validated</t>
-  </si>
-  <si>
-    <t>It - 15 to be validated</t>
-  </si>
-  <si>
     <t>Note: This is a FUR for HU03. The flow based-capacity calculation will be enhanced by the DLR results. Artelys: Ok, different scenarios will be explored regarding combinations of co-optimisation &amp; DLR</t>
   </si>
   <si>
@@ -13626,6 +13617,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Aptos Narrow"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Code should be well documented and understandable.</t>
@@ -13635,6 +13627,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Aptos Narrow"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Code should be clearly documented and structured to enhance readability, ensuring that future developers can easily understand and maintain the system. (not need to be open source)</t>
@@ -14279,15 +14272,6 @@
 ADAION: NO</t>
   </si>
   <si>
-    <t>1 Hungarian UC is missing description, very little information: Done</t>
-  </si>
-  <si>
-    <t>1 Italian new pilot not in T2.4 folder: Done</t>
-  </si>
-  <si>
-    <t>validated 9/10 SLO - Done</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <strike/>
@@ -15043,20 +15027,17 @@
 validation  before final validation by the TSO</t>
   </si>
   <si>
-    <t>(10+6+5+13+4)</t>
-  </si>
-  <si>
-    <t>430 validated FURs, plus 15 not validated FURs</t>
-  </si>
-  <si>
     <t>SLO-SUC-1 (SLO-BUC-3)</t>
+  </si>
+  <si>
+    <t>(10+6+5+13+3)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -15333,18 +15314,6 @@
       <color theme="0"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -16037,7 +16006,6 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="31" fillId="20" borderId="5" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -16113,6 +16081,7 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -19250,10 +19219,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75409A8D-CEEC-44C5-8836-03B2BE4112D6}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19264,7 +19233,7 @@
     <col min="4" max="4" width="20.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="120"/>
       <c r="B1" s="120" t="s">
         <v>2215</v>
@@ -19276,119 +19245,119 @@
         <v>2217</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="161" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="160" t="s">
         <v>2218</v>
       </c>
-      <c r="B2" s="162">
+      <c r="B2" s="161">
         <v>3</v>
       </c>
-      <c r="C2" s="162">
+      <c r="C2" s="161">
         <v>24</v>
       </c>
-      <c r="D2" s="162" t="s">
-        <v>2384</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="164" t="s">
+      <c r="D2" s="161" t="s">
+        <v>2378</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="163" t="s">
         <v>2219</v>
       </c>
-      <c r="B3" s="162">
+      <c r="B3" s="161">
         <v>4</v>
       </c>
-      <c r="C3" s="162">
+      <c r="C3" s="161">
         <v>35</v>
       </c>
-      <c r="D3" s="162" t="s">
+      <c r="D3" s="161" t="s">
         <v>2220</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="120" t="s">
         <v>2221</v>
       </c>
       <c r="B4" t="s">
         <v>2222</v>
       </c>
-      <c r="C4" s="139">
+      <c r="C4" s="138">
         <v>114</v>
       </c>
       <c r="D4" t="s">
-        <v>2439</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="120" t="s">
         <v>2223</v>
       </c>
-      <c r="B5" s="141">
+      <c r="B5" s="140">
         <v>5</v>
       </c>
-      <c r="C5" s="139">
-        <v>38</v>
+      <c r="C5" s="138">
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>2462</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="161" t="s">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="160" t="s">
         <v>2224</v>
       </c>
-      <c r="B6" s="162">
+      <c r="B6" s="161">
         <v>8</v>
       </c>
-      <c r="C6" s="162">
+      <c r="C6" s="161">
         <v>65</v>
       </c>
-      <c r="D6" s="162" t="s">
-        <v>2379</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="161" t="s">
+      <c r="D6" s="161" t="s">
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="160" t="s">
         <v>2225</v>
       </c>
-      <c r="B7" s="162">
+      <c r="B7" s="161">
         <v>3</v>
       </c>
-      <c r="C7" s="162">
+      <c r="C7" s="161">
         <v>28</v>
       </c>
-      <c r="D7" s="162" t="s">
-        <v>2380</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="161" t="s">
+      <c r="D7" s="161" t="s">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="160" t="s">
         <v>2226</v>
       </c>
-      <c r="B8" s="162">
+      <c r="B8" s="161">
         <v>3</v>
       </c>
-      <c r="C8" s="163">
+      <c r="C8" s="162">
         <v>26</v>
       </c>
-      <c r="D8" s="162" t="s">
-        <v>2382</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="161" t="s">
+      <c r="D8" s="161" t="s">
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="160" t="s">
         <v>1577</v>
       </c>
-      <c r="B9" s="162">
+      <c r="B9" s="161">
         <v>10</v>
       </c>
-      <c r="C9" s="162">
+      <c r="C9" s="161">
         <v>100</v>
       </c>
-      <c r="D9" s="162" t="s">
+      <c r="D9" s="161" t="s">
         <v>2227</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="121" t="s">
         <v>2228</v>
       </c>
@@ -19396,56 +19365,16 @@
         <v>50</v>
       </c>
       <c r="C10" s="130">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D10" s="121"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C11" s="140" t="s">
-        <v>2463</v>
-      </c>
-      <c r="D11" s="140"/>
-      <c r="E11" s="140"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="138" t="s">
-        <v>2229</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>2344</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>2230</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>2231</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>2342</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>2343</v>
-      </c>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C11" s="139"/>
+      <c r="D11" s="139"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="171"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19684,13 +19613,13 @@
         <v>309</v>
       </c>
       <c r="D16" s="113" t="s">
-        <v>2270</v>
+        <v>2267</v>
       </c>
       <c r="E16" s="95" t="s">
         <v>310</v>
       </c>
-      <c r="F16" s="148" t="s">
-        <v>2269</v>
+      <c r="F16" s="147" t="s">
+        <v>2266</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="58" x14ac:dyDescent="0.35">
@@ -20812,7 +20741,7 @@
         <v>504</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>2259</v>
+        <v>2256</v>
       </c>
       <c r="E89" s="28" t="s">
         <v>505</v>
@@ -20829,7 +20758,7 @@
         <v>508</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>2259</v>
+        <v>2256</v>
       </c>
       <c r="E90" s="28" t="s">
         <v>505</v>
@@ -20846,7 +20775,7 @@
         <v>511</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>2259</v>
+        <v>2256</v>
       </c>
       <c r="E91" s="28" t="s">
         <v>505</v>
@@ -20863,7 +20792,7 @@
         <v>514</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>2259</v>
+        <v>2256</v>
       </c>
       <c r="E92" s="26" t="s">
         <v>515</v>
@@ -20879,7 +20808,7 @@
         <v>517</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>2259</v>
+        <v>2256</v>
       </c>
       <c r="E93" s="109" t="s">
         <v>518</v>
@@ -20896,7 +20825,7 @@
         <v>521</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>2260</v>
+        <v>2257</v>
       </c>
       <c r="E94" s="28" t="s">
         <v>505</v>
@@ -20909,7 +20838,7 @@
         <v>522</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>2260</v>
+        <v>2257</v>
       </c>
       <c r="E95" s="62" t="s">
         <v>523</v>
@@ -20922,7 +20851,7 @@
         <v>524</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>2260</v>
+        <v>2257</v>
       </c>
       <c r="E96" s="109" t="s">
         <v>525</v>
@@ -20935,10 +20864,10 @@
         <v>526</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>2260</v>
+        <v>2257</v>
       </c>
       <c r="E97" s="95" t="s">
-        <v>2339</v>
+        <v>2336</v>
       </c>
       <c r="F97" s="111" t="s">
         <v>527</v>
@@ -20951,10 +20880,10 @@
         <v>528</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>2260</v>
+        <v>2257</v>
       </c>
       <c r="E98" s="110" t="s">
-        <v>2340</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="116" x14ac:dyDescent="0.35">
@@ -20964,10 +20893,10 @@
         <v>530</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>2260</v>
+        <v>2257</v>
       </c>
       <c r="E99" s="110" t="s">
-        <v>2340</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="58" x14ac:dyDescent="0.35">
@@ -20977,7 +20906,7 @@
         <v>531</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>2260</v>
+        <v>2257</v>
       </c>
       <c r="E100" s="95" t="s">
         <v>523</v>
@@ -20990,7 +20919,7 @@
         <v>532</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>2261</v>
+        <v>2258</v>
       </c>
       <c r="E101" s="95" t="s">
         <v>523</v>
@@ -21001,13 +20930,13 @@
         <v>307</v>
       </c>
       <c r="B102" s="28" t="s">
-        <v>2428</v>
+        <v>2422</v>
       </c>
       <c r="C102" s="28" t="s">
         <v>534</v>
       </c>
       <c r="D102" s="27" t="s">
-        <v>2346</v>
+        <v>2340</v>
       </c>
       <c r="E102" s="28" t="s">
         <v>505</v>
@@ -21020,10 +20949,10 @@
         <v>535</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>2263</v>
+        <v>2260</v>
       </c>
       <c r="E103" s="95" t="s">
-        <v>2341</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="58" x14ac:dyDescent="0.35">
@@ -21033,7 +20962,7 @@
         <v>536</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>2261</v>
+        <v>2258</v>
       </c>
       <c r="E104" s="95" t="s">
         <v>537</v>
@@ -21046,7 +20975,7 @@
         <v>538</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>2261</v>
+        <v>2258</v>
       </c>
       <c r="E105" s="95" t="s">
         <v>529</v>
@@ -21054,16 +20983,16 @@
     </row>
     <row r="106" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A106" s="27" t="s">
-        <v>2420</v>
+        <v>2414</v>
       </c>
       <c r="B106" s="28" t="s">
-        <v>2429</v>
+        <v>2423</v>
       </c>
       <c r="C106" s="28" t="s">
         <v>539</v>
       </c>
       <c r="D106" s="27" t="s">
-        <v>2345</v>
+        <v>2339</v>
       </c>
       <c r="E106" s="28" t="s">
         <v>529</v>
@@ -21076,7 +21005,7 @@
         <v>540</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>2261</v>
+        <v>2258</v>
       </c>
       <c r="E107" s="95" t="s">
         <v>537</v>
@@ -21089,7 +21018,7 @@
         <v>541</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>2261</v>
+        <v>2258</v>
       </c>
       <c r="E108" s="95" t="s">
         <v>523</v>
@@ -21097,16 +21026,16 @@
     </row>
     <row r="109" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A109" s="27" t="s">
-        <v>2421</v>
+        <v>2415</v>
       </c>
       <c r="B109" s="28" t="s">
-        <v>2430</v>
+        <v>2424</v>
       </c>
       <c r="C109" s="28" t="s">
         <v>542</v>
       </c>
       <c r="D109" s="27" t="s">
-        <v>2345</v>
+        <v>2339</v>
       </c>
       <c r="E109" s="28" t="s">
         <v>505</v>
@@ -21119,7 +21048,7 @@
         <v>543</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>2261</v>
+        <v>2258</v>
       </c>
       <c r="E110" s="95" t="s">
         <v>523</v>
@@ -21132,7 +21061,7 @@
         <v>544</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>2261</v>
+        <v>2258</v>
       </c>
       <c r="E111" s="95" t="s">
         <v>523</v>
@@ -21145,7 +21074,7 @@
         <v>545</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>2261</v>
+        <v>2258</v>
       </c>
       <c r="E112" s="95" t="s">
         <v>523</v>
@@ -21158,7 +21087,7 @@
         <v>546</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>2261</v>
+        <v>2258</v>
       </c>
       <c r="E113" s="62" t="s">
         <v>547</v>
@@ -21175,7 +21104,7 @@
         <v>550</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>2265</v>
+        <v>2262</v>
       </c>
       <c r="E114" s="28" t="s">
         <v>551</v>
@@ -21192,7 +21121,7 @@
         <v>554</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>2264</v>
+        <v>2261</v>
       </c>
       <c r="E115" s="28" t="s">
         <v>555</v>
@@ -21226,7 +21155,7 @@
         <v>563</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>2262</v>
+        <v>2259</v>
       </c>
       <c r="E117" s="28" t="s">
         <v>564</v>
@@ -21243,7 +21172,7 @@
         <v>567</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>2262</v>
+        <v>2259</v>
       </c>
       <c r="E118" s="28" t="s">
         <v>564</v>
@@ -21260,7 +21189,7 @@
         <v>570</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>2262</v>
+        <v>2259</v>
       </c>
       <c r="E119" s="28" t="s">
         <v>564</v>
@@ -21277,7 +21206,7 @@
         <v>573</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>2262</v>
+        <v>2259</v>
       </c>
       <c r="E120" s="26" t="s">
         <v>574</v>
@@ -21294,7 +21223,7 @@
         <v>577</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>2262</v>
+        <v>2259</v>
       </c>
       <c r="E121" s="28" t="s">
         <v>564</v>
@@ -21311,7 +21240,7 @@
         <v>580</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>2262</v>
+        <v>2259</v>
       </c>
       <c r="E122" s="28" t="s">
         <v>581</v>
@@ -21328,7 +21257,7 @@
         <v>584</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>2262</v>
+        <v>2259</v>
       </c>
       <c r="E123" s="28" t="s">
         <v>564</v>
@@ -21345,7 +21274,7 @@
         <v>587</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>2262</v>
+        <v>2259</v>
       </c>
       <c r="E124" s="28" t="s">
         <v>564</v>
@@ -21362,7 +21291,7 @@
         <v>590</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>2262</v>
+        <v>2259</v>
       </c>
       <c r="E125" s="26" t="s">
         <v>574</v>
@@ -21379,7 +21308,7 @@
         <v>593</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>2262</v>
+        <v>2259</v>
       </c>
       <c r="E126" s="28" t="s">
         <v>564</v>
@@ -21396,7 +21325,7 @@
         <v>596</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>2263</v>
+        <v>2260</v>
       </c>
       <c r="E127" s="28" t="s">
         <v>564</v>
@@ -21413,7 +21342,7 @@
         <v>599</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>2263</v>
+        <v>2260</v>
       </c>
       <c r="E128" s="26" t="s">
         <v>574</v>
@@ -21430,7 +21359,7 @@
         <v>602</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>2263</v>
+        <v>2260</v>
       </c>
       <c r="E129" s="28" t="s">
         <v>564</v>
@@ -21447,7 +21376,7 @@
         <v>605</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>2263</v>
+        <v>2260</v>
       </c>
       <c r="E130" s="28" t="s">
         <v>564</v>
@@ -21464,7 +21393,7 @@
         <v>608</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>2263</v>
+        <v>2260</v>
       </c>
       <c r="E131" s="28" t="s">
         <v>564</v>
@@ -21481,7 +21410,7 @@
         <v>611</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>2266</v>
+        <v>2263</v>
       </c>
       <c r="E132" s="28" t="s">
         <v>564</v>
@@ -21498,7 +21427,7 @@
         <v>614</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>2266</v>
+        <v>2263</v>
       </c>
       <c r="E133" s="28" t="s">
         <v>564</v>
@@ -21515,7 +21444,7 @@
         <v>617</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>2266</v>
+        <v>2263</v>
       </c>
       <c r="E134" s="28" t="s">
         <v>564</v>
@@ -21532,7 +21461,7 @@
         <v>620</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>2266</v>
+        <v>2263</v>
       </c>
       <c r="E135" s="28" t="s">
         <v>564</v>
@@ -21549,7 +21478,7 @@
         <v>623</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>2266</v>
+        <v>2263</v>
       </c>
       <c r="E136" s="28" t="s">
         <v>564</v>
@@ -21566,7 +21495,7 @@
         <v>626</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>2266</v>
+        <v>2263</v>
       </c>
       <c r="E137" s="28" t="s">
         <v>564</v>
@@ -21583,7 +21512,7 @@
         <v>629</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>2266</v>
+        <v>2263</v>
       </c>
       <c r="E138" s="28" t="s">
         <v>564</v>
@@ -21600,7 +21529,7 @@
         <v>632</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>2266</v>
+        <v>2263</v>
       </c>
       <c r="E139" s="28" t="s">
         <v>564</v>
@@ -21617,7 +21546,7 @@
         <v>635</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>2266</v>
+        <v>2263</v>
       </c>
       <c r="E140" s="28" t="s">
         <v>564</v>
@@ -21668,7 +21597,7 @@
         <v>647</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>2267</v>
+        <v>2264</v>
       </c>
       <c r="E143" s="28" t="s">
         <v>564</v>
@@ -21685,7 +21614,7 @@
         <v>650</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>2267</v>
+        <v>2264</v>
       </c>
       <c r="E144" s="28" t="s">
         <v>564</v>
@@ -21702,7 +21631,7 @@
         <v>653</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>2267</v>
+        <v>2264</v>
       </c>
       <c r="E145" s="28" t="s">
         <v>654</v>
@@ -21719,7 +21648,7 @@
         <v>657</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>2267</v>
+        <v>2264</v>
       </c>
       <c r="E146" s="26" t="s">
         <v>658</v>
@@ -21736,7 +21665,7 @@
         <v>661</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>2267</v>
+        <v>2264</v>
       </c>
       <c r="E147" s="28" t="s">
         <v>564</v>
@@ -21753,7 +21682,7 @@
         <v>664</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>2267</v>
+        <v>2264</v>
       </c>
       <c r="E148" s="28" t="s">
         <v>564</v>
@@ -21770,7 +21699,7 @@
         <v>667</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>2267</v>
+        <v>2264</v>
       </c>
       <c r="E149" s="28" t="s">
         <v>564</v>
@@ -21787,7 +21716,7 @@
         <v>670</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>2267</v>
+        <v>2264</v>
       </c>
       <c r="E150" s="28" t="s">
         <v>564</v>
@@ -21804,7 +21733,7 @@
         <v>673</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>2267</v>
+        <v>2264</v>
       </c>
       <c r="E151" s="28" t="s">
         <v>654</v>
@@ -21817,7 +21746,7 @@
         <v>674</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>2267</v>
+        <v>2264</v>
       </c>
       <c r="E152" s="62" t="s">
         <v>675</v>
@@ -21834,7 +21763,7 @@
         <v>678</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>2268</v>
+        <v>2265</v>
       </c>
       <c r="E153" s="28" t="s">
         <v>418</v>
@@ -21851,7 +21780,7 @@
         <v>682</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>2268</v>
+        <v>2265</v>
       </c>
       <c r="E154" s="28" t="s">
         <v>683</v>
@@ -21868,7 +21797,7 @@
         <v>686</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>2268</v>
+        <v>2265</v>
       </c>
       <c r="E155" s="28" t="s">
         <v>335</v>
@@ -21885,7 +21814,7 @@
         <v>689</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>2268</v>
+        <v>2265</v>
       </c>
       <c r="E156" s="28" t="s">
         <v>152</v>
@@ -21902,7 +21831,7 @@
         <v>692</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>2268</v>
+        <v>2265</v>
       </c>
       <c r="E157" s="28" t="s">
         <v>418</v>
@@ -21919,7 +21848,7 @@
         <v>695</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>2268</v>
+        <v>2265</v>
       </c>
       <c r="E158" s="28" t="s">
         <v>152</v>
@@ -21936,7 +21865,7 @@
         <v>698</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>2268</v>
+        <v>2265</v>
       </c>
       <c r="E159" s="28" t="s">
         <v>699</v>
@@ -21953,7 +21882,7 @@
         <v>702</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>2268</v>
+        <v>2265</v>
       </c>
       <c r="E160" s="28" t="s">
         <v>152</v>
@@ -21970,7 +21899,7 @@
         <v>705</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>2268</v>
+        <v>2265</v>
       </c>
       <c r="E161" s="28" t="s">
         <v>418</v>
@@ -21987,7 +21916,7 @@
         <v>708</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>2268</v>
+        <v>2265</v>
       </c>
       <c r="E162" s="28" t="s">
         <v>152</v>
@@ -22000,7 +21929,7 @@
         <v>709</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>2268</v>
+        <v>2265</v>
       </c>
       <c r="E163" s="62" t="s">
         <v>710</v>
@@ -22017,7 +21946,7 @@
         <v>713</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>2268</v>
+        <v>2265</v>
       </c>
       <c r="E164" s="28" t="s">
         <v>714</v>
@@ -22034,7 +21963,7 @@
         <v>717</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>2268</v>
+        <v>2265</v>
       </c>
       <c r="E165" s="28" t="s">
         <v>718</v>
@@ -22045,7 +21974,7 @@
         <v>308</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>2271</v>
+        <v>2268</v>
       </c>
       <c r="D166" s="4" t="s">
         <v>825</v>
@@ -22054,174 +21983,174 @@
     </row>
     <row r="167" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A167" s="4" t="s">
-        <v>2422</v>
+        <v>2416</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>2431</v>
+        <v>2425</v>
       </c>
       <c r="C167" s="28" t="s">
-        <v>2412</v>
+        <v>2406</v>
       </c>
       <c r="D167" s="27" t="s">
         <v>486</v>
       </c>
       <c r="E167" s="134" t="s">
-        <v>2411</v>
+        <v>2405</v>
       </c>
       <c r="F167" s="10" t="s">
-        <v>2408</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A168" s="4" t="s">
-        <v>2423</v>
+        <v>2417</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>2432</v>
+        <v>2426</v>
       </c>
       <c r="C168" s="28" t="s">
-        <v>2410</v>
+        <v>2404</v>
       </c>
       <c r="D168" s="27" t="s">
         <v>486</v>
       </c>
       <c r="E168" s="134" t="s">
-        <v>2411</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="6" t="s">
-        <v>2409</v>
+        <v>2403</v>
       </c>
       <c r="D169" s="4" t="s">
         <v>486</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>2413</v>
+        <v>2407</v>
       </c>
       <c r="F169" t="s">
-        <v>2417</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A170" s="4" t="s">
-        <v>2424</v>
+        <v>2418</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>2433</v>
+        <v>2427</v>
       </c>
       <c r="C170" s="28" t="s">
-        <v>2414</v>
+        <v>2408</v>
       </c>
       <c r="D170" s="27" t="s">
         <v>486</v>
       </c>
       <c r="E170" s="134" t="s">
-        <v>2411</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A171" s="4" t="s">
-        <v>2425</v>
+        <v>2419</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>2434</v>
+        <v>2428</v>
       </c>
       <c r="C171" s="28" t="s">
-        <v>2419</v>
+        <v>2413</v>
       </c>
       <c r="D171" s="27" t="s">
         <v>486</v>
       </c>
       <c r="E171" s="134" t="s">
-        <v>2411</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="6" t="s">
-        <v>2415</v>
+        <v>2409</v>
       </c>
       <c r="D172" s="4" t="s">
         <v>486</v>
       </c>
       <c r="E172" s="6" t="s">
-        <v>2413</v>
+        <v>2407</v>
       </c>
       <c r="F172" t="s">
-        <v>2417</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="6" t="s">
-        <v>2416</v>
+        <v>2410</v>
       </c>
       <c r="D173" s="4" t="s">
         <v>486</v>
       </c>
       <c r="E173" s="6" t="s">
-        <v>2413</v>
+        <v>2407</v>
       </c>
       <c r="F173" t="s">
-        <v>2417</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A174" s="4" t="s">
-        <v>2426</v>
+        <v>2420</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>2435</v>
+        <v>2429</v>
       </c>
       <c r="C174" s="28" t="s">
-        <v>2437</v>
+        <v>2431</v>
       </c>
       <c r="D174" s="27" t="s">
         <v>486</v>
       </c>
       <c r="E174" s="134" t="s">
-        <v>2411</v>
+        <v>2405</v>
       </c>
       <c r="F174" t="s">
-        <v>2418</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="6" t="s">
-        <v>2407</v>
+        <v>2401</v>
       </c>
       <c r="D175" s="4" t="s">
         <v>486</v>
       </c>
       <c r="E175" s="6" t="s">
-        <v>2413</v>
+        <v>2407</v>
       </c>
       <c r="F175" t="s">
-        <v>2417</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A176" s="4" t="s">
-        <v>2427</v>
+        <v>2421</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>2438</v>
+        <v>2432</v>
       </c>
       <c r="C176" s="28" t="s">
-        <v>2436</v>
+        <v>2430</v>
       </c>
       <c r="D176" s="27" t="s">
         <v>486</v>
       </c>
       <c r="E176" s="28" t="s">
-        <v>2411</v>
+        <v>2405</v>
       </c>
     </row>
   </sheetData>
@@ -22310,7 +22239,7 @@
       <c r="B14" s="7" t="s">
         <v>722</v>
       </c>
-      <c r="C14" s="145" t="s">
+      <c r="C14" s="144" t="s">
         <v>723</v>
       </c>
       <c r="D14" s="8" t="s">
@@ -23048,7 +22977,7 @@
       <c r="B64" s="10" t="s">
         <v>875</v>
       </c>
-      <c r="C64" s="146" t="s">
+      <c r="C64" s="145" t="s">
         <v>876</v>
       </c>
       <c r="D64" s="11" t="s">
@@ -23062,7 +22991,7 @@
       <c r="B65" s="6" t="s">
         <v>878</v>
       </c>
-      <c r="C65" s="147" t="s">
+      <c r="C65" s="146" t="s">
         <v>879</v>
       </c>
       <c r="D65" s="4" t="s">
@@ -24075,7 +24004,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404F557D-9777-4DAC-A8B5-33F7D51AC88E}">
   <dimension ref="A4:J84"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
       <selection activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
@@ -24529,13 +24458,13 @@
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="6" t="s">
-        <v>2395</v>
+        <v>2389</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>1119</v>
       </c>
       <c r="F34" s="95" t="s">
-        <v>2397</v>
+        <v>2391</v>
       </c>
       <c r="G34" s="122" t="s">
         <v>1121</v>
@@ -24546,13 +24475,13 @@
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="6" t="s">
-        <v>2396</v>
+        <v>2390</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>1119</v>
       </c>
       <c r="F35" s="95" t="s">
-        <v>2398</v>
+        <v>2392</v>
       </c>
       <c r="G35" s="122" t="s">
         <v>1122</v>
@@ -24591,7 +24520,7 @@
         <v>1129</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>2399</v>
+        <v>2393</v>
       </c>
       <c r="F37" s="137" t="s">
         <v>1090</v>
@@ -24614,7 +24543,7 @@
         <v>1120</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>2394</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="58" x14ac:dyDescent="0.35">
@@ -24631,7 +24560,7 @@
         <v>1120</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>2394</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="87" x14ac:dyDescent="0.35">
@@ -24736,13 +24665,13 @@
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="6" t="s">
-        <v>2400</v>
+        <v>2394</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>1136</v>
       </c>
       <c r="F45" s="95" t="s">
-        <v>2401</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="87" x14ac:dyDescent="0.35">
@@ -24784,13 +24713,13 @@
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="6" t="s">
-        <v>2402</v>
+        <v>2396</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>1152</v>
       </c>
       <c r="F48" s="95" t="s">
-        <v>2403</v>
+        <v>2397</v>
       </c>
       <c r="G48" s="122" t="s">
         <v>1143</v>
@@ -24818,21 +24747,21 @@
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="6" t="s">
-        <v>2404</v>
+        <v>2398</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>2405</v>
+        <v>2399</v>
       </c>
       <c r="F50" s="95" t="s">
-        <v>2403</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>2453</v>
+        <v>2447</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>2452</v>
+        <v>2446</v>
       </c>
       <c r="D51" s="10" t="s">
         <v>1155</v>
@@ -24905,22 +24834,22 @@
     </row>
     <row r="55" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
-        <v>2449</v>
+        <v>2443</v>
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="27" t="s">
-        <v>2456</v>
+        <v>2450</v>
       </c>
       <c r="D55" s="57" t="s">
-        <v>2454</v>
+        <v>2448</v>
       </c>
       <c r="E55" s="27" t="s">
-        <v>2406</v>
+        <v>2400</v>
       </c>
       <c r="F55" s="28" t="s">
         <v>1213</v>
       </c>
-      <c r="G55" s="171" t="s">
+      <c r="G55" s="170" t="s">
         <v>1165</v>
       </c>
     </row>
@@ -25153,134 +25082,134 @@
     </row>
     <row r="70" spans="1:10" s="119" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="27" t="s">
-        <v>2440</v>
+        <v>2434</v>
       </c>
       <c r="B70" s="27"/>
       <c r="C70" s="28" t="s">
         <v>1207</v>
       </c>
       <c r="D70" s="28" t="s">
-        <v>2447</v>
+        <v>2441</v>
       </c>
       <c r="E70" s="28" t="s">
         <v>1171</v>
       </c>
-      <c r="F70" s="170"/>
+      <c r="F70" s="169"/>
       <c r="G70" s="115" t="s">
-        <v>2388</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="71" spans="1:10" s="119" customFormat="1" ht="56.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="27" t="s">
-        <v>2441</v>
+        <v>2435</v>
       </c>
       <c r="B71" s="27"/>
       <c r="C71" s="28" t="s">
         <v>1208</v>
       </c>
       <c r="D71" s="28" t="s">
-        <v>2387</v>
+        <v>2381</v>
       </c>
       <c r="E71" s="28" t="s">
         <v>1171</v>
       </c>
-      <c r="F71" s="170"/>
+      <c r="F71" s="169"/>
       <c r="G71" s="115" t="s">
-        <v>2388</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="72" spans="1:10" s="119" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A72" s="27" t="s">
-        <v>2442</v>
+        <v>2436</v>
       </c>
       <c r="B72" s="27"/>
       <c r="C72" s="28" t="s">
         <v>1209</v>
       </c>
       <c r="D72" s="28" t="s">
-        <v>2444</v>
+        <v>2438</v>
       </c>
       <c r="E72" s="28" t="s">
-        <v>2446</v>
-      </c>
-      <c r="F72" s="170"/>
+        <v>2440</v>
+      </c>
+      <c r="F72" s="169"/>
       <c r="G72" s="115" t="s">
-        <v>2388</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="73" spans="1:10" s="119" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A73" s="27" t="s">
-        <v>2443</v>
+        <v>2437</v>
       </c>
       <c r="B73" s="27"/>
       <c r="C73" s="28" t="s">
         <v>1210</v>
       </c>
       <c r="D73" s="28" t="s">
-        <v>2445</v>
+        <v>2439</v>
       </c>
       <c r="E73" s="27" t="s">
         <v>1171</v>
       </c>
-      <c r="F73" s="170"/>
+      <c r="F73" s="169"/>
       <c r="G73" s="115" t="s">
-        <v>2388</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
-        <v>2450</v>
+        <v>2444</v>
       </c>
       <c r="B74" s="4"/>
       <c r="C74" s="4" t="s">
-        <v>2458</v>
+        <v>2452</v>
       </c>
       <c r="D74" s="28" t="s">
         <v>1211</v>
       </c>
       <c r="E74" s="27" t="s">
-        <v>2406</v>
+        <v>2400</v>
       </c>
       <c r="F74" s="4"/>
-      <c r="G74" s="142" t="s">
+      <c r="G74" s="141" t="s">
         <v>1212</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A75" s="4" t="s">
-        <v>2451</v>
+        <v>2445</v>
       </c>
       <c r="B75" s="4"/>
       <c r="C75" s="4" t="s">
-        <v>2457</v>
+        <v>2451</v>
       </c>
       <c r="D75" s="28" t="s">
-        <v>2461</v>
+        <v>2455</v>
       </c>
       <c r="E75" s="133" t="s">
-        <v>2406</v>
+        <v>2400</v>
       </c>
       <c r="F75" s="4"/>
-      <c r="G75" s="142" t="s">
-        <v>2383</v>
+      <c r="G75" s="141" t="s">
+        <v>2377</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A76" s="4" t="s">
-        <v>2455</v>
+        <v>2449</v>
       </c>
       <c r="B76" s="4"/>
       <c r="C76" s="4" t="s">
-        <v>2459</v>
+        <v>2453</v>
       </c>
       <c r="D76" s="28" t="s">
         <v>1214</v>
       </c>
       <c r="E76" s="27" t="s">
-        <v>2406</v>
+        <v>2400</v>
       </c>
       <c r="F76" s="4"/>
-      <c r="G76" s="142" t="s">
+      <c r="G76" s="141" t="s">
         <v>1215</v>
       </c>
     </row>
@@ -25291,14 +25220,14 @@
       <c r="D77" s="118" t="s">
         <v>1216</v>
       </c>
-      <c r="E77" s="166" t="s">
-        <v>2385</v>
-      </c>
-      <c r="F77" s="144" t="s">
+      <c r="E77" s="165" t="s">
+        <v>2379</v>
+      </c>
+      <c r="F77" s="143" t="s">
         <v>1213</v>
       </c>
-      <c r="G77" s="167" t="s">
-        <v>2389</v>
+      <c r="G77" s="166" t="s">
+        <v>2383</v>
       </c>
       <c r="H77" s="179"/>
       <c r="I77" s="180"/>
@@ -25311,28 +25240,28 @@
       <c r="D78" s="6" t="s">
         <v>1217</v>
       </c>
-      <c r="E78" s="166" t="s">
-        <v>2385</v>
-      </c>
-      <c r="F78" s="144" t="s">
+      <c r="E78" s="165" t="s">
+        <v>2379</v>
+      </c>
+      <c r="F78" s="143" t="s">
         <v>1213</v>
       </c>
-      <c r="G78" s="143" t="s">
-        <v>2390</v>
+      <c r="G78" s="142" t="s">
+        <v>2384</v>
       </c>
       <c r="H78" s="177" t="s">
-        <v>2386</v>
+        <v>2380</v>
       </c>
       <c r="I78" s="178"/>
       <c r="J78" s="178"/>
     </row>
     <row r="79" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A79" s="27" t="s">
-        <v>2448</v>
+        <v>2442</v>
       </c>
       <c r="B79" s="4"/>
       <c r="C79" s="28" t="s">
-        <v>2460</v>
+        <v>2454</v>
       </c>
       <c r="D79" s="28" t="s">
         <v>1218</v>
@@ -25346,7 +25275,7 @@
       <c r="G79" s="65" t="s">
         <v>335</v>
       </c>
-      <c r="H79" s="165" t="s">
+      <c r="H79" s="164" t="s">
         <v>1090</v>
       </c>
     </row>
@@ -25357,16 +25286,16 @@
       <c r="D80" s="18" t="s">
         <v>1219</v>
       </c>
-      <c r="E80" s="168" t="s">
-        <v>2391</v>
-      </c>
-      <c r="F80" s="144" t="s">
+      <c r="E80" s="167" t="s">
+        <v>2385</v>
+      </c>
+      <c r="F80" s="143" t="s">
         <v>1213</v>
       </c>
-      <c r="G80" s="169" t="s">
-        <v>2392</v>
-      </c>
-      <c r="H80" s="165" t="s">
+      <c r="G80" s="168" t="s">
+        <v>2386</v>
+      </c>
+      <c r="H80" s="164" t="s">
         <v>1620</v>
       </c>
     </row>
@@ -25377,16 +25306,16 @@
       <c r="D81" s="18" t="s">
         <v>1220</v>
       </c>
-      <c r="E81" s="168" t="s">
-        <v>2391</v>
-      </c>
-      <c r="F81" s="144" t="s">
+      <c r="E81" s="167" t="s">
+        <v>2385</v>
+      </c>
+      <c r="F81" s="143" t="s">
         <v>1213</v>
       </c>
-      <c r="G81" s="143" t="s">
+      <c r="G81" s="142" t="s">
         <v>1221</v>
       </c>
-      <c r="H81" s="165" t="s">
+      <c r="H81" s="164" t="s">
         <v>1620</v>
       </c>
     </row>
@@ -25400,13 +25329,13 @@
       <c r="E82" s="4" t="s">
         <v>1163</v>
       </c>
-      <c r="F82" s="144" t="s">
+      <c r="F82" s="143" t="s">
         <v>1213</v>
       </c>
-      <c r="G82" s="143" t="s">
+      <c r="G82" s="142" t="s">
         <v>1223</v>
       </c>
-      <c r="H82" s="165" t="s">
+      <c r="H82" s="164" t="s">
         <v>1620</v>
       </c>
     </row>
@@ -25420,14 +25349,14 @@
       <c r="E83" s="4" t="s">
         <v>1163</v>
       </c>
-      <c r="F83" s="144" t="s">
+      <c r="F83" s="143" t="s">
         <v>1213</v>
       </c>
-      <c r="G83" s="143" t="s">
+      <c r="G83" s="142" t="s">
         <v>1225</v>
       </c>
-      <c r="H83" s="165" t="s">
-        <v>2393</v>
+      <c r="H83" s="164" t="s">
+        <v>2387</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.35">
@@ -25459,7 +25388,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DF25547-C823-4F33-AC6F-F43AC603D32A}">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
@@ -25943,167 +25872,167 @@
     </row>
     <row r="38" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
-        <v>2288</v>
-      </c>
-      <c r="B38" s="153" t="s">
         <v>2285</v>
       </c>
+      <c r="B38" s="152" t="s">
+        <v>2282</v>
+      </c>
       <c r="C38" s="6" t="s">
-        <v>2252</v>
+        <v>2249</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>2464</v>
-      </c>
-      <c r="E38" s="150" t="s">
+        <v>2456</v>
+      </c>
+      <c r="E38" s="149" t="s">
         <v>1090</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
-        <v>2289</v>
-      </c>
-      <c r="B39" s="149" t="s">
         <v>2286</v>
       </c>
+      <c r="B39" s="148" t="s">
+        <v>2283</v>
+      </c>
       <c r="C39" s="6" t="s">
-        <v>2253</v>
+        <v>2250</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>2464</v>
-      </c>
-      <c r="E39" s="150" t="s">
+        <v>2456</v>
+      </c>
+      <c r="E39" s="149" t="s">
         <v>1090</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
-        <v>2290</v>
-      </c>
-      <c r="B40" s="153" t="s">
         <v>2287</v>
       </c>
+      <c r="B40" s="152" t="s">
+        <v>2284</v>
+      </c>
       <c r="C40" s="6" t="s">
-        <v>2254</v>
+        <v>2251</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>2464</v>
-      </c>
-      <c r="E40" s="150" t="s">
+        <v>2456</v>
+      </c>
+      <c r="E40" s="149" t="s">
         <v>1090</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
-        <v>2291</v>
+        <v>2288</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>2283</v>
+        <v>2280</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>2277</v>
+        <v>2274</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>2464</v>
-      </c>
-      <c r="E41" s="151" t="s">
-        <v>2272</v>
+        <v>2456</v>
+      </c>
+      <c r="E41" s="150" t="s">
+        <v>2269</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
-        <v>2292</v>
-      </c>
-      <c r="B42" s="153" t="s">
-        <v>2282</v>
+        <v>2289</v>
+      </c>
+      <c r="B42" s="152" t="s">
+        <v>2279</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>2278</v>
+        <v>2275</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>2464</v>
-      </c>
-      <c r="E42" s="151" t="s">
-        <v>2273</v>
+        <v>2456</v>
+      </c>
+      <c r="E42" s="150" t="s">
+        <v>2270</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
-        <v>2293</v>
+        <v>2290</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>2280</v>
+        <v>2277</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>2255</v>
+        <v>2252</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>2464</v>
-      </c>
-      <c r="E43" s="150" t="s">
+        <v>2456</v>
+      </c>
+      <c r="E43" s="149" t="s">
         <v>1090</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
-        <v>2294</v>
+        <v>2291</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>2281</v>
+        <v>2278</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>2256</v>
+        <v>2253</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>2464</v>
-      </c>
-      <c r="E44" s="150" t="s">
+        <v>2456</v>
+      </c>
+      <c r="E44" s="149" t="s">
         <v>1090</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
-        <v>2295</v>
+        <v>2292</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>2274</v>
+        <v>2271</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>2279</v>
+        <v>2276</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>2464</v>
-      </c>
-      <c r="E45" s="151" t="s">
-        <v>2275</v>
+        <v>2456</v>
+      </c>
+      <c r="E45" s="150" t="s">
+        <v>2272</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="119" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A46" s="117"/>
       <c r="B46" s="117"/>
       <c r="C46" s="118" t="s">
-        <v>2257</v>
+        <v>2254</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>2464</v>
-      </c>
-      <c r="E46" s="152" t="s">
-        <v>2276</v>
+        <v>2456</v>
+      </c>
+      <c r="E46" s="151" t="s">
+        <v>2273</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
-        <v>2296</v>
-      </c>
-      <c r="B47" s="153" t="s">
-        <v>2284</v>
+        <v>2293</v>
+      </c>
+      <c r="B47" s="152" t="s">
+        <v>2281</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>2258</v>
+        <v>2255</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>2464</v>
-      </c>
-      <c r="E47" s="150" t="s">
+        <v>2456</v>
+      </c>
+      <c r="E47" s="149" t="s">
         <v>1090</v>
       </c>
     </row>
@@ -26295,7 +26224,7 @@
     </row>
     <row r="11" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="174" t="s">
-        <v>2251</v>
+        <v>2248</v>
       </c>
       <c r="B11" s="174"/>
       <c r="C11" s="174"/>
@@ -26481,10 +26410,10 @@
     </row>
     <row r="25" spans="1:7" ht="112.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
-        <v>2320</v>
+        <v>2317</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>2297</v>
+        <v>2294</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>1427</v>
@@ -26498,27 +26427,27 @@
     </row>
     <row r="26" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
-        <v>2321</v>
+        <v>2318</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>2298</v>
+        <v>2295</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>2381</v>
+        <v>2375</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>1430</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>2232</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
-        <v>2322</v>
+        <v>2319</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>2299</v>
+        <v>2296</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>1431</v>
@@ -26532,10 +26461,10 @@
     </row>
     <row r="28" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
-        <v>2323</v>
+        <v>2320</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>2300</v>
+        <v>2297</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>1433</v>
@@ -26544,15 +26473,15 @@
         <v>1430</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>2233</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
-        <v>2324</v>
+        <v>2321</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>2301</v>
+        <v>2298</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>1434</v>
@@ -26561,15 +26490,15 @@
         <v>1430</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>2234</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
-        <v>2325</v>
+        <v>2322</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>2302</v>
+        <v>2299</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>1435</v>
@@ -26583,10 +26512,10 @@
     </row>
     <row r="31" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
-        <v>2326</v>
+        <v>2323</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>2303</v>
+        <v>2300</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>1437</v>
@@ -26595,15 +26524,15 @@
         <v>1430</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>2235</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
-        <v>2327</v>
+        <v>2324</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>2304</v>
+        <v>2301</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>1438</v>
@@ -26617,10 +26546,10 @@
     </row>
     <row r="33" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
-        <v>2328</v>
+        <v>2325</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>2305</v>
+        <v>2302</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>1440</v>
@@ -26634,13 +26563,13 @@
     </row>
     <row r="34" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
-        <v>2329</v>
+        <v>2326</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>2307</v>
+        <v>2304</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>2306</v>
+        <v>2303</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>1430</v>
@@ -26651,19 +26580,19 @@
     </row>
     <row r="35" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
-        <v>2330</v>
+        <v>2327</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>2308</v>
+        <v>2305</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>2237</v>
+        <v>2234</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>1430</v>
       </c>
       <c r="E35" s="27" t="s">
-        <v>2236</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="119" customFormat="1" ht="58" x14ac:dyDescent="0.35">
@@ -26676,58 +26605,58 @@
         <v>1428</v>
       </c>
       <c r="E36" s="117" t="s">
-        <v>2239</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
-        <v>2331</v>
+        <v>2328</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>2309</v>
+        <v>2306</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>2238</v>
+        <v>2235</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>1430</v>
       </c>
       <c r="E37" s="27" t="s">
-        <v>2236</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
-        <v>2332</v>
+        <v>2329</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>2310</v>
+        <v>2307</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>2240</v>
+        <v>2237</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>1430</v>
       </c>
       <c r="E38" s="27" t="s">
-        <v>2236</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
-        <v>2333</v>
+        <v>2330</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>2311</v>
+        <v>2308</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>2241</v>
+        <v>2238</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>1430</v>
       </c>
       <c r="E39" s="27" t="s">
-        <v>2236</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="119" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
@@ -26740,18 +26669,18 @@
         <v>1430</v>
       </c>
       <c r="E40" s="117" t="s">
-        <v>2242</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
-        <v>2334</v>
+        <v>2331</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>2312</v>
+        <v>2309</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>2243</v>
+        <v>2240</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>1428</v>
@@ -26762,13 +26691,13 @@
     </row>
     <row r="42" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
-        <v>2335</v>
+        <v>2332</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>2313</v>
+        <v>2310</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>2244</v>
+        <v>2241</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>1428</v>
@@ -26779,13 +26708,13 @@
     </row>
     <row r="43" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
-        <v>2336</v>
+        <v>2333</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>2314</v>
+        <v>2311</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>2315</v>
+        <v>2312</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>1428</v>
@@ -26796,13 +26725,13 @@
     </row>
     <row r="44" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
-        <v>2337</v>
+        <v>2334</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>2317</v>
+        <v>2314</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>2316</v>
+        <v>2313</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>1428</v>
@@ -26815,24 +26744,24 @@
       <c r="A45" s="117"/>
       <c r="B45" s="117"/>
       <c r="C45" s="118" t="s">
-        <v>2245</v>
+        <v>2242</v>
       </c>
       <c r="D45" s="117" t="s">
         <v>1428</v>
       </c>
       <c r="E45" s="117" t="s">
-        <v>2246</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
-        <v>2338</v>
+        <v>2335</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>2319</v>
+        <v>2316</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>2318</v>
+        <v>2315</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>1428</v>
@@ -26845,13 +26774,13 @@
       <c r="A47" s="117"/>
       <c r="B47" s="117"/>
       <c r="C47" s="118" t="s">
-        <v>2247</v>
+        <v>2244</v>
       </c>
       <c r="D47" s="117" t="s">
         <v>1428</v>
       </c>
       <c r="E47" s="117" t="s">
-        <v>2246</v>
+        <v>2243</v>
       </c>
     </row>
   </sheetData>
@@ -28484,17 +28413,17 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="203" x14ac:dyDescent="0.35">
-      <c r="A6" s="160" t="s">
+      <c r="A6" s="159" t="s">
         <v>1586</v>
       </c>
-      <c r="B6" s="157" t="s">
+      <c r="B6" s="156" t="s">
         <v>1587</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>1588</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>2353</v>
+        <v>2347</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>1590</v>
@@ -28535,7 +28464,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="80.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="160" t="s">
+      <c r="A7" s="159" t="s">
         <v>1602</v>
       </c>
       <c r="B7" s="28" t="s">
@@ -28585,7 +28514,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="166.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="160" t="s">
+      <c r="A8" s="159" t="s">
         <v>1612</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -28638,7 +28567,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" ht="132.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="160" t="s">
+      <c r="A9" s="159" t="s">
         <v>1623</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -28684,11 +28613,11 @@
         <v>1622</v>
       </c>
       <c r="Q9" s="89" t="s">
-        <v>2250</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="205.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="160" t="s">
+      <c r="A10" s="159" t="s">
         <v>1630</v>
       </c>
       <c r="B10" s="28" t="s">
@@ -28741,7 +28670,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="160" t="s">
+      <c r="A11" s="159" t="s">
         <v>1644</v>
       </c>
       <c r="B11" s="28" t="s">
@@ -28791,7 +28720,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" ht="165.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="160" t="s">
+      <c r="A12" s="159" t="s">
         <v>1653</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -28844,7 +28773,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" ht="87" x14ac:dyDescent="0.35">
-      <c r="A13" s="160" t="s">
+      <c r="A13" s="159" t="s">
         <v>1663</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -28894,7 +28823,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" ht="157.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="160" t="s">
+      <c r="A14" s="159" t="s">
         <v>1671</v>
       </c>
       <c r="B14" s="132" t="s">
@@ -28947,7 +28876,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="160" t="s">
+      <c r="A15" s="159" t="s">
         <v>1681</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -28997,7 +28926,7 @@
       </c>
     </row>
     <row r="16" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="160" t="s">
+      <c r="A16" s="159" t="s">
         <v>1686</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -29006,7 +28935,7 @@
       <c r="C16" s="4" t="s">
         <v>1632</v>
       </c>
-      <c r="D16" s="155" t="s">
+      <c r="D16" s="154" t="s">
         <v>1665</v>
       </c>
       <c r="E16" s="6" t="s">
@@ -29047,20 +28976,20 @@
       </c>
     </row>
     <row r="17" spans="1:17" ht="248.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="160" t="s">
+      <c r="A17" s="159" t="s">
         <v>1691</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>2342</v>
+      </c>
+      <c r="C17" s="154" t="s">
+        <v>1632</v>
+      </c>
+      <c r="D17" s="153" t="s">
+        <v>1633</v>
+      </c>
+      <c r="E17" s="18" t="s">
         <v>2348</v>
-      </c>
-      <c r="C17" s="155" t="s">
-        <v>1632</v>
-      </c>
-      <c r="D17" s="154" t="s">
-        <v>1633</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>2354</v>
       </c>
       <c r="F17" s="116" t="s">
         <v>1693</v>
@@ -29097,16 +29026,16 @@
       </c>
     </row>
     <row r="19" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="160" t="s">
+      <c r="A19" s="159" t="s">
         <v>1698</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>1699</v>
       </c>
-      <c r="C19" s="155" t="s">
+      <c r="C19" s="154" t="s">
         <v>1896</v>
       </c>
-      <c r="D19" s="155" t="s">
+      <c r="D19" s="154" t="s">
         <v>1925</v>
       </c>
       <c r="E19" s="6" t="s">
@@ -29145,7 +29074,7 @@
       </c>
     </row>
     <row r="20" spans="1:17" ht="174" x14ac:dyDescent="0.35">
-      <c r="A20" s="160" t="s">
+      <c r="A20" s="159" t="s">
         <v>1704</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -29193,7 +29122,7 @@
       </c>
     </row>
     <row r="21" spans="1:17" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="160" t="s">
+      <c r="A21" s="159" t="s">
         <v>1710</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -29243,7 +29172,7 @@
       </c>
     </row>
     <row r="22" spans="1:17" ht="62.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="160" t="s">
+      <c r="A22" s="159" t="s">
         <v>1715</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -29293,7 +29222,7 @@
       </c>
     </row>
     <row r="23" spans="1:17" ht="126" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="160" t="s">
+      <c r="A23" s="159" t="s">
         <v>1722</v>
       </c>
       <c r="B23" s="6" t="s">
@@ -29346,7 +29275,7 @@
       </c>
     </row>
     <row r="24" spans="1:17" ht="232" x14ac:dyDescent="0.35">
-      <c r="A24" s="160" t="s">
+      <c r="A24" s="159" t="s">
         <v>1732</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -29399,7 +29328,7 @@
       </c>
     </row>
     <row r="25" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="160" t="s">
+      <c r="A25" s="159" t="s">
         <v>1739</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -29450,7 +29379,7 @@
       </c>
     </row>
     <row r="26" spans="1:17" ht="138.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="160" t="s">
+      <c r="A26" s="159" t="s">
         <v>1743</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -29503,7 +29432,7 @@
       </c>
     </row>
     <row r="27" spans="1:17" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="160" t="s">
+      <c r="A27" s="159" t="s">
         <v>1753</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -29556,7 +29485,7 @@
       </c>
     </row>
     <row r="28" spans="1:17" ht="103.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="160" t="s">
+      <c r="A28" s="159" t="s">
         <v>1761</v>
       </c>
       <c r="B28" s="4" t="s">
@@ -29606,7 +29535,7 @@
       </c>
     </row>
     <row r="29" spans="1:17" ht="147.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="160" t="s">
+      <c r="A29" s="159" t="s">
         <v>1766</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -29656,7 +29585,7 @@
       </c>
     </row>
     <row r="30" spans="1:17" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="160" t="s">
+      <c r="A30" s="159" t="s">
         <v>1771</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -29706,7 +29635,7 @@
       </c>
     </row>
     <row r="31" spans="1:17" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="160" t="s">
+      <c r="A31" s="159" t="s">
         <v>1777</v>
       </c>
       <c r="B31" s="6" t="s">
@@ -29756,7 +29685,7 @@
       </c>
     </row>
     <row r="32" spans="1:17" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="160" t="s">
+      <c r="A32" s="159" t="s">
         <v>1782</v>
       </c>
       <c r="B32" s="6" t="s">
@@ -29809,7 +29738,7 @@
       </c>
     </row>
     <row r="33" spans="1:17" ht="169.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="160" t="s">
+      <c r="A33" s="159" t="s">
         <v>1787</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -29857,7 +29786,7 @@
       </c>
     </row>
     <row r="34" spans="1:17" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="160" t="s">
+      <c r="A34" s="159" t="s">
         <v>1799</v>
       </c>
       <c r="B34" s="6" t="s">
@@ -29907,7 +29836,7 @@
       </c>
     </row>
     <row r="35" spans="1:17" ht="85.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="160" t="s">
+      <c r="A35" s="159" t="s">
         <v>1805</v>
       </c>
       <c r="B35" s="28" t="s">
@@ -29957,7 +29886,7 @@
       </c>
     </row>
     <row r="36" spans="1:17" ht="110.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="160" t="s">
+      <c r="A36" s="159" t="s">
         <v>1810</v>
       </c>
       <c r="B36" s="28" t="s">
@@ -30007,16 +29936,16 @@
       </c>
     </row>
     <row r="37" spans="1:17" ht="198" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="160" t="s">
+      <c r="A37" s="159" t="s">
         <v>1817</v>
       </c>
       <c r="B37" s="28" t="s">
-        <v>2352</v>
-      </c>
-      <c r="C37" s="155" t="s">
+        <v>2346</v>
+      </c>
+      <c r="C37" s="154" t="s">
         <v>1825</v>
       </c>
-      <c r="D37" s="154" t="s">
+      <c r="D37" s="153" t="s">
         <v>1835</v>
       </c>
       <c r="E37" s="28" t="s">
@@ -30060,7 +29989,7 @@
       </c>
     </row>
     <row r="38" spans="1:17" ht="29" x14ac:dyDescent="0.35">
-      <c r="A38" s="160" t="s">
+      <c r="A38" s="159" t="s">
         <v>1823</v>
       </c>
       <c r="B38" s="27" t="s">
@@ -30110,16 +30039,16 @@
       </c>
     </row>
     <row r="39" spans="1:17" ht="54.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="160" t="s">
+      <c r="A39" s="159" t="s">
         <v>1828</v>
       </c>
-      <c r="B39" s="155" t="s">
-        <v>2351</v>
-      </c>
-      <c r="C39" s="155" t="s">
+      <c r="B39" s="154" t="s">
+        <v>2345</v>
+      </c>
+      <c r="C39" s="154" t="s">
         <v>1632</v>
       </c>
-      <c r="D39" s="155" t="s">
+      <c r="D39" s="154" t="s">
         <v>1665</v>
       </c>
       <c r="E39" s="28" t="s">
@@ -30160,7 +30089,7 @@
       </c>
     </row>
     <row r="40" spans="1:17" ht="168.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="160" t="s">
+      <c r="A40" s="159" t="s">
         <v>1832</v>
       </c>
       <c r="B40" s="27" t="s">
@@ -30210,7 +30139,7 @@
       </c>
     </row>
     <row r="41" spans="1:17" ht="54" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="160" t="s">
+      <c r="A41" s="159" t="s">
         <v>1839</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -30260,7 +30189,7 @@
       </c>
     </row>
     <row r="42" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="160" t="s">
+      <c r="A42" s="159" t="s">
         <v>1850</v>
       </c>
       <c r="B42" s="132" t="s">
@@ -30313,7 +30242,7 @@
       </c>
     </row>
     <row r="43" spans="1:17" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="160" t="s">
+      <c r="A43" s="159" t="s">
         <v>1855</v>
       </c>
       <c r="B43" s="131" t="s">
@@ -30366,7 +30295,7 @@
       </c>
     </row>
     <row r="44" spans="1:17" s="6" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="160" t="s">
+      <c r="A44" s="159" t="s">
         <v>1860</v>
       </c>
       <c r="B44" s="6" t="s">
@@ -30379,7 +30308,7 @@
         <v>1862</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>2248</v>
+        <v>2245</v>
       </c>
       <c r="F44" s="33" t="s">
         <v>1606</v>
@@ -30415,21 +30344,21 @@
         <v>1866</v>
       </c>
       <c r="Q44" s="95" t="s">
-        <v>2249</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="58" x14ac:dyDescent="0.35">
-      <c r="A45" s="160" t="s">
+      <c r="A45" s="159" t="s">
         <v>1867</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>2371</v>
+        <v>2365</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>1632</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>2372</v>
+        <v>2366</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>1868</v>
@@ -30469,11 +30398,11 @@
       </c>
     </row>
     <row r="46" spans="1:17" ht="29" x14ac:dyDescent="0.35">
-      <c r="A46" s="160" t="s">
+      <c r="A46" s="159" t="s">
         <v>1872</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>2373</v>
+        <v>2367</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>1841</v>
@@ -30522,14 +30451,14 @@
       </c>
     </row>
     <row r="47" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="160" t="s">
+      <c r="A47" s="159" t="s">
         <v>1877</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>2375</v>
+        <v>2369</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>2374</v>
+        <v>2368</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>1878</v>
@@ -30575,11 +30504,11 @@
       </c>
     </row>
     <row r="48" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="160" t="s">
+      <c r="A48" s="159" t="s">
         <v>1881</v>
       </c>
       <c r="B48" s="27" t="s">
-        <v>2376</v>
+        <v>2370</v>
       </c>
       <c r="C48" s="27" t="s">
         <v>1841</v>
@@ -30625,7 +30554,7 @@
       </c>
     </row>
     <row r="49" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="160" t="s">
+      <c r="A49" s="159" t="s">
         <v>1886</v>
       </c>
       <c r="B49" s="27"/>
@@ -30673,11 +30602,11 @@
       </c>
     </row>
     <row r="50" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="160" t="s">
+      <c r="A50" s="159" t="s">
         <v>1888</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>2377</v>
+        <v>2371</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>1841</v>
@@ -30723,11 +30652,11 @@
       </c>
     </row>
     <row r="51" spans="1:17" ht="58" x14ac:dyDescent="0.35">
-      <c r="A51" s="160" t="s">
+      <c r="A51" s="159" t="s">
         <v>1891</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>2378</v>
+        <v>2372</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>1632</v>
@@ -30773,7 +30702,7 @@
       </c>
     </row>
     <row r="52" spans="1:17" ht="116" x14ac:dyDescent="0.35">
-      <c r="A52" s="160" t="s">
+      <c r="A52" s="159" t="s">
         <v>1894</v>
       </c>
       <c r="B52" s="28" t="s">
@@ -30823,16 +30752,16 @@
       </c>
     </row>
     <row r="53" spans="1:17" ht="145" x14ac:dyDescent="0.35">
-      <c r="A53" s="160" t="s">
+      <c r="A53" s="159" t="s">
         <v>1900</v>
       </c>
-      <c r="B53" s="156" t="s">
-        <v>2356</v>
-      </c>
-      <c r="C53" s="154" t="s">
+      <c r="B53" s="155" t="s">
+        <v>2350</v>
+      </c>
+      <c r="C53" s="153" t="s">
         <v>1745</v>
       </c>
-      <c r="D53" s="154" t="s">
+      <c r="D53" s="153" t="s">
         <v>1768</v>
       </c>
       <c r="E53" s="6" t="s">
@@ -30873,13 +30802,13 @@
       </c>
     </row>
     <row r="54" spans="1:17" ht="145" x14ac:dyDescent="0.35">
-      <c r="A54" s="160" t="s">
+      <c r="A54" s="159" t="s">
         <v>1906</v>
       </c>
       <c r="B54" s="27" t="s">
-        <v>2370</v>
-      </c>
-      <c r="C54" s="154" t="s">
+        <v>2364</v>
+      </c>
+      <c r="C54" s="153" t="s">
         <v>1745</v>
       </c>
       <c r="D54" s="27" t="s">
@@ -30923,16 +30852,16 @@
       </c>
     </row>
     <row r="55" spans="1:17" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A55" s="160" t="s">
+      <c r="A55" s="159" t="s">
         <v>1910</v>
       </c>
-      <c r="B55" s="159" t="s">
-        <v>2369</v>
-      </c>
-      <c r="C55" s="154" t="s">
+      <c r="B55" s="158" t="s">
+        <v>2363</v>
+      </c>
+      <c r="C55" s="153" t="s">
         <v>1745</v>
       </c>
-      <c r="D55" s="159" t="s">
+      <c r="D55" s="158" t="s">
         <v>1768</v>
       </c>
       <c r="E55" s="6" t="s">
@@ -30973,13 +30902,13 @@
       </c>
     </row>
     <row r="56" spans="1:17" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="160" t="s">
+      <c r="A56" s="159" t="s">
         <v>1914</v>
       </c>
       <c r="B56" s="131" t="s">
         <v>1915</v>
       </c>
-      <c r="C56" s="154" t="s">
+      <c r="C56" s="153" t="s">
         <v>1745</v>
       </c>
       <c r="D56" s="131" t="s">
@@ -31026,7 +30955,7 @@
       </c>
     </row>
     <row r="57" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A57" s="160" t="s">
+      <c r="A57" s="159" t="s">
         <v>1919</v>
       </c>
       <c r="B57" s="131" t="s">
@@ -31076,7 +31005,7 @@
       </c>
     </row>
     <row r="58" spans="1:17" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="160" t="s">
+      <c r="A58" s="159" t="s">
         <v>1923</v>
       </c>
       <c r="B58" s="4" t="s">
@@ -31126,11 +31055,11 @@
       </c>
     </row>
     <row r="59" spans="1:17" ht="87" x14ac:dyDescent="0.35">
-      <c r="A59" s="160" t="s">
+      <c r="A59" s="159" t="s">
         <v>1928</v>
       </c>
-      <c r="B59" s="154" t="s">
-        <v>2368</v>
+      <c r="B59" s="153" t="s">
+        <v>2362</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>1588</v>
@@ -31176,7 +31105,7 @@
       </c>
     </row>
     <row r="60" spans="1:17" ht="87" x14ac:dyDescent="0.35">
-      <c r="A60" s="160" t="s">
+      <c r="A60" s="159" t="s">
         <v>1934</v>
       </c>
       <c r="B60" s="28" t="s">
@@ -31229,11 +31158,11 @@
       </c>
     </row>
     <row r="61" spans="1:17" ht="90" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="160" t="s">
+      <c r="A61" s="159" t="s">
         <v>1940</v>
       </c>
-      <c r="B61" s="154" t="s">
-        <v>2367</v>
+      <c r="B61" s="153" t="s">
+        <v>2361</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>1825</v>
@@ -31279,17 +31208,17 @@
       </c>
     </row>
     <row r="62" spans="1:17" ht="174" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="160" t="s">
+      <c r="A62" s="159" t="s">
         <v>1950</v>
       </c>
       <c r="B62" s="28" t="s">
         <v>1951</v>
       </c>
-      <c r="C62" s="154" t="s">
+      <c r="C62" s="153" t="s">
         <v>1896</v>
       </c>
-      <c r="D62" s="155" t="s">
-        <v>2350</v>
+      <c r="D62" s="154" t="s">
+        <v>2344</v>
       </c>
       <c r="E62" s="28" t="s">
         <v>1953</v>
@@ -31329,17 +31258,17 @@
       </c>
     </row>
     <row r="63" spans="1:17" ht="29" x14ac:dyDescent="0.35">
-      <c r="A63" s="160" t="s">
+      <c r="A63" s="159" t="s">
         <v>1954</v>
       </c>
       <c r="B63" s="28" t="s">
         <v>1955</v>
       </c>
-      <c r="C63" s="154" t="s">
+      <c r="C63" s="153" t="s">
         <v>1896</v>
       </c>
-      <c r="D63" s="155" t="s">
-        <v>2350</v>
+      <c r="D63" s="154" t="s">
+        <v>2344</v>
       </c>
       <c r="E63" s="28" t="s">
         <v>1956</v>
@@ -31379,7 +31308,7 @@
       </c>
     </row>
     <row r="64" spans="1:17" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A64" s="160" t="s">
+      <c r="A64" s="159" t="s">
         <v>1958</v>
       </c>
       <c r="B64" s="4" t="s">
@@ -31432,11 +31361,11 @@
       </c>
     </row>
     <row r="65" spans="1:17" ht="203" x14ac:dyDescent="0.35">
-      <c r="A65" s="160" t="s">
+      <c r="A65" s="159" t="s">
         <v>1966</v>
       </c>
-      <c r="B65" s="155" t="s">
-        <v>2366</v>
+      <c r="B65" s="154" t="s">
+        <v>2360</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>1588</v>
@@ -31485,11 +31414,11 @@
       </c>
     </row>
     <row r="66" spans="1:17" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A66" s="160" t="s">
+      <c r="A66" s="159" t="s">
         <v>1974</v>
       </c>
-      <c r="B66" s="155" t="s">
-        <v>2365</v>
+      <c r="B66" s="154" t="s">
+        <v>2359</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>1789</v>
@@ -31535,11 +31464,11 @@
       </c>
     </row>
     <row r="67" spans="1:17" ht="318.5" x14ac:dyDescent="0.35">
-      <c r="A67" s="160" t="s">
+      <c r="A67" s="159" t="s">
         <v>1980</v>
       </c>
-      <c r="B67" s="155" t="s">
-        <v>2360</v>
+      <c r="B67" s="154" t="s">
+        <v>2354</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>1896</v>
@@ -31588,11 +31517,11 @@
       </c>
     </row>
     <row r="68" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A68" s="160" t="s">
+      <c r="A68" s="159" t="s">
         <v>1988</v>
       </c>
-      <c r="B68" s="155" t="s">
-        <v>2364</v>
+      <c r="B68" s="154" t="s">
+        <v>2358</v>
       </c>
       <c r="C68" s="27" t="s">
         <v>1632</v>
@@ -31638,11 +31567,11 @@
       </c>
     </row>
     <row r="69" spans="1:17" ht="58" x14ac:dyDescent="0.35">
-      <c r="A69" s="160" t="s">
+      <c r="A69" s="159" t="s">
         <v>1992</v>
       </c>
-      <c r="B69" s="156" t="s">
-        <v>2359</v>
+      <c r="B69" s="155" t="s">
+        <v>2353</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>1588</v>
@@ -31688,7 +31617,7 @@
       </c>
     </row>
     <row r="70" spans="1:17" ht="318.5" x14ac:dyDescent="0.35">
-      <c r="A70" s="160" t="s">
+      <c r="A70" s="159" t="s">
         <v>1997</v>
       </c>
       <c r="B70" s="6" t="s">
@@ -31697,7 +31626,7 @@
       <c r="C70" s="4" t="s">
         <v>1896</v>
       </c>
-      <c r="D70" s="154" t="s">
+      <c r="D70" s="153" t="s">
         <v>1925</v>
       </c>
       <c r="E70" s="6" t="s">
@@ -31741,7 +31670,7 @@
       </c>
     </row>
     <row r="71" spans="1:17" ht="58" x14ac:dyDescent="0.35">
-      <c r="A71" s="160" t="s">
+      <c r="A71" s="159" t="s">
         <v>2004</v>
       </c>
       <c r="B71" s="6" t="s">
@@ -31791,11 +31720,11 @@
       </c>
     </row>
     <row r="72" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A72" s="160" t="s">
+      <c r="A72" s="159" t="s">
         <v>2011</v>
       </c>
-      <c r="B72" s="155" t="s">
-        <v>2363</v>
+      <c r="B72" s="154" t="s">
+        <v>2357</v>
       </c>
       <c r="C72" s="133" t="s">
         <v>1841</v>
@@ -31803,8 +31732,8 @@
       <c r="D72" s="133" t="s">
         <v>2012</v>
       </c>
-      <c r="E72" s="158" t="s">
-        <v>2362</v>
+      <c r="E72" s="157" t="s">
+        <v>2356</v>
       </c>
       <c r="F72" s="36" t="s">
         <v>1606</v>
@@ -31841,11 +31770,11 @@
       </c>
     </row>
     <row r="73" spans="1:17" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A73" s="160" t="s">
+      <c r="A73" s="159" t="s">
         <v>2015</v>
       </c>
-      <c r="B73" s="155" t="s">
-        <v>2361</v>
+      <c r="B73" s="154" t="s">
+        <v>2355</v>
       </c>
       <c r="C73" s="27" t="s">
         <v>1745</v>
@@ -31891,11 +31820,11 @@
       </c>
     </row>
     <row r="74" spans="1:17" ht="70.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="160" t="s">
+      <c r="A74" s="159" t="s">
         <v>2019</v>
       </c>
-      <c r="B74" s="154" t="s">
-        <v>2358</v>
+      <c r="B74" s="153" t="s">
+        <v>2352</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>2020</v>
@@ -31939,7 +31868,7 @@
       </c>
     </row>
     <row r="75" spans="1:17" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A75" s="160" t="s">
+      <c r="A75" s="159" t="s">
         <v>2026</v>
       </c>
       <c r="B75" s="131" t="s">
@@ -31987,11 +31916,11 @@
       </c>
     </row>
     <row r="76" spans="1:17" ht="87" x14ac:dyDescent="0.35">
-      <c r="A76" s="160" t="s">
+      <c r="A76" s="159" t="s">
         <v>2031</v>
       </c>
-      <c r="B76" s="154" t="s">
-        <v>2357</v>
+      <c r="B76" s="153" t="s">
+        <v>2351</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>2020</v>
@@ -32035,7 +31964,7 @@
       </c>
     </row>
     <row r="77" spans="1:17" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="160" t="s">
+      <c r="A77" s="159" t="s">
         <v>2036</v>
       </c>
       <c r="B77" s="4" t="s">
@@ -32080,20 +32009,20 @@
       </c>
     </row>
     <row r="78" spans="1:17" ht="195.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="160" t="s">
-        <v>2355</v>
+      <c r="A78" s="159" t="s">
+        <v>2349</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>2349</v>
-      </c>
-      <c r="C78" s="155" t="s">
+        <v>2343</v>
+      </c>
+      <c r="C78" s="154" t="s">
         <v>1896</v>
       </c>
-      <c r="D78" s="155" t="s">
+      <c r="D78" s="154" t="s">
         <v>1925</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>2347</v>
+        <v>2341</v>
       </c>
       <c r="G78" s="10"/>
       <c r="L78"/>
@@ -33113,15 +33042,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010050B7A9603DF1A244B8132CE1C1B398A8" ma:contentTypeVersion="15" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="a440459976170ea38fb7eb2e040ba179">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="98aa5c30-0ca6-4ff6-9f27-712b5f6a60fa" xmlns:ns3="6eb2050a-b6f7-4b0c-983c-e4078fb34326" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ba382d81cd35db01624f0cbef7b1ab06" ns2:_="" ns3:_="">
     <xsd:import namespace="98aa5c30-0ca6-4ff6-9f27-712b5f6a60fa"/>
@@ -33356,7 +33276,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="98aa5c30-0ca6-4ff6-9f27-712b5f6a60fa">
@@ -33367,15 +33287,16 @@
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B133FF0C-9036-42CF-A0D0-12ED50A1E5CD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DC56F9B-A44D-4F2A-B5A0-1E0EBC29A123}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -33394,19 +33315,27 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0005A226-8E27-4CCD-8501-04EB607E9F78}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="98aa5c30-0ca6-4ff6-9f27-712b5f6a60fa"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="6eb2050a-b6f7-4b0c-983c-e4078fb34326"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="6eb2050a-b6f7-4b0c-983c-e4078fb34326"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B133FF0C-9036-42CF-A0D0-12ED50A1E5CD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
